--- a/Ecopulper/my_graphs/impact_3.xlsx
+++ b/Ecopulper/my_graphs/impact_3.xlsx
@@ -534,70 +534,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>19.58455765992403</v>
+        <v>0.1977389361709356</v>
       </c>
       <c r="C2">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D2">
-        <v>1.034487581855501</v>
+        <v>0.01044485082093161</v>
       </c>
       <c r="E2">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F2">
-        <v>0.01405392132801353</v>
+        <v>0.0001418979245499941</v>
       </c>
       <c r="G2">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H2">
-        <v>0.1087722677593774</v>
+        <v>0.001098234505661821</v>
       </c>
       <c r="I2">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J2">
-        <v>0.9080667519010603</v>
+        <v>0.009168808814138174</v>
       </c>
       <c r="K2">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L2">
-        <v>0.06891373940743506</v>
+        <v>0.0006959936581552029</v>
       </c>
       <c r="M2">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N2">
-        <v>1.691843255423009</v>
+        <v>0.01708200993016362</v>
       </c>
       <c r="O2">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P2">
-        <v>0.2044184699237911</v>
+        <v>0.2044236399057143</v>
       </c>
       <c r="Q2">
-        <v>4.891925863513253</v>
+        <v>4.891802144122016</v>
       </c>
       <c r="R2">
-        <v>-10.11441993941844</v>
+        <v>-0.1021217286761384</v>
       </c>
       <c r="S2">
-        <v>0.07060062835444114</v>
+        <v>0.0007127774479158688</v>
       </c>
       <c r="T2">
-        <v>-1.086801185741933</v>
+        <v>-0.01097304128688847</v>
       </c>
       <c r="U2">
-        <v>12.968432942871</v>
+        <v>0.1309302719309926</v>
       </c>
       <c r="V2">
-        <v>-3.194451855495572</v>
+        <v>-0.03225837787613273</v>
       </c>
       <c r="W2">
-        <v>53.47342028236017</v>
+        <v>0.5398880380671471</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -605,70 +605,70 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>42.35508081689477</v>
+        <v>0.4276547208428383</v>
       </c>
       <c r="C3">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D3">
-        <v>2.076882943176315</v>
+        <v>0.02096999985224102</v>
       </c>
       <c r="E3">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F3">
-        <v>0.03055940231570276</v>
+        <v>0.0003085550815740135</v>
       </c>
       <c r="G3">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H3">
-        <v>0.2176894357517085</v>
+        <v>0.002197979829361429</v>
       </c>
       <c r="I3">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J3">
-        <v>3.568107438739389</v>
+        <v>0.03602745151147246</v>
       </c>
       <c r="K3">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L3">
-        <v>1.030106017598882</v>
+        <v>0.01040122844278812</v>
       </c>
       <c r="M3">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N3">
-        <v>3.738019838929176</v>
+        <v>0.03774241684004664</v>
       </c>
       <c r="O3">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P3">
-        <v>0.442091211067043</v>
+        <v>0.4421118892941877</v>
       </c>
       <c r="Q3">
-        <v>2.261976657681961</v>
+        <v>2.261870861687199</v>
       </c>
       <c r="R3">
-        <v>-20.53837355262658</v>
+        <v>-0.2073732189892326</v>
       </c>
       <c r="S3">
-        <v>-0.09445418152245111</v>
+        <v>-0.0009537941223243251</v>
       </c>
       <c r="T3">
-        <v>-2.175972865665244</v>
+        <v>-0.02197049452388455</v>
       </c>
       <c r="U3">
-        <v>-7.493332892190665</v>
+        <v>-0.07567379716783762</v>
       </c>
       <c r="V3">
-        <v>-29.79485872387886</v>
+        <v>-0.3008448048494756</v>
       </c>
       <c r="W3">
-        <v>43.86149750044569</v>
+        <v>0.4428356902208179</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -676,70 +676,70 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>65.12460315413773</v>
+        <v>0.6575704049319029</v>
       </c>
       <c r="C4">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D4">
-        <v>3.119232488781563</v>
+        <v>0.03149514424148947</v>
       </c>
       <c r="E4">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F4">
-        <v>0.04706415783948614</v>
+        <v>0.0004752121567435097</v>
       </c>
       <c r="G4">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H4">
-        <v>0.326601816584116</v>
+        <v>0.003297724667390867</v>
       </c>
       <c r="I4">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J4">
-        <v>6.228031211066991</v>
+        <v>0.06288608210161328</v>
       </c>
       <c r="K4">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L4">
-        <v>1.991256049368531</v>
+        <v>0.02010645903646946</v>
       </c>
       <c r="M4">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N4">
-        <v>5.784106488339603</v>
+        <v>0.05840281443670392</v>
       </c>
       <c r="O4">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P4">
-        <v>0.6797535059167927</v>
+        <v>0.6798000346995494</v>
       </c>
       <c r="Q4">
-        <v>1.47112150403886</v>
+        <v>1.47102081341018</v>
       </c>
       <c r="R4">
-        <v>-30.96186900867906</v>
+        <v>-0.3126246628817171</v>
       </c>
       <c r="S4">
-        <v>-0.259501736760285</v>
+        <v>-0.002620364874019288</v>
       </c>
       <c r="T4">
-        <v>-3.265096673989319</v>
+        <v>-0.03296794290417893</v>
       </c>
       <c r="U4">
-        <v>-27.95419938629493</v>
+        <v>-0.2822777731344104</v>
       </c>
       <c r="V4">
-        <v>-56.39409644715488</v>
+        <v>-0.5694311107508838</v>
       </c>
       <c r="W4">
-        <v>34.24999718274921</v>
+        <v>0.3457833842840046</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -747,70 +747,70 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>87.89312474150211</v>
+        <v>0.8874859875068069</v>
       </c>
       <c r="C5">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D5">
-        <v>4.161536221756251</v>
+        <v>0.04202028391591739</v>
       </c>
       <c r="E5">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F5">
-        <v>0.06356818795757135</v>
+        <v>0.0006418691664293874</v>
       </c>
       <c r="G5">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H5">
-        <v>0.4355094105694661</v>
+        <v>0.004397469017021649</v>
       </c>
       <c r="I5">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J5">
-        <v>8.887838075868785</v>
+        <v>0.08974470105022192</v>
       </c>
       <c r="K5">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L5">
-        <v>2.952363837044686</v>
+        <v>0.02981168567202985</v>
       </c>
       <c r="M5">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N5">
-        <v>7.830103209940717</v>
+        <v>0.07906320365145802</v>
       </c>
       <c r="O5">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P5">
-        <v>0.9174053552021082</v>
+        <v>0.9174880751589931</v>
       </c>
       <c r="Q5">
-        <v>1.090030698348928</v>
+        <v>1.08993242209356</v>
       </c>
       <c r="R5">
-        <v>-41.38490633842594</v>
+        <v>-0.4178760596259963</v>
       </c>
       <c r="S5">
-        <v>-0.4245420379411371</v>
+        <v>-0.004286934970878065</v>
       </c>
       <c r="T5">
-        <v>-4.35417261384282</v>
+        <v>-0.04396538640048675</v>
       </c>
       <c r="U5">
-        <v>-48.41416660230607</v>
+        <v>-0.4888816652819514</v>
       </c>
       <c r="V5">
-        <v>-82.99216509517282</v>
+        <v>-0.8380173002369702</v>
       </c>
       <c r="W5">
-        <v>24.63891930598766</v>
+        <v>0.2487311179284006</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -818,70 +818,70 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>110.6606456432492</v>
+        <v>1.117401466704905</v>
       </c>
       <c r="C6">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D6">
-        <v>5.203794145068969</v>
+        <v>0.05254541894828435</v>
       </c>
       <c r="E6">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F6">
-        <v>0.08007149271725211</v>
+        <v>0.0008085260978987208</v>
       </c>
       <c r="G6">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H6">
-        <v>0.544412218027901</v>
+        <v>0.005497212879163271</v>
       </c>
       <c r="I6">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J6">
-        <v>11.54752804152668</v>
+        <v>0.1166033083572984</v>
       </c>
       <c r="K6">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L6">
-        <v>3.913429383654147</v>
+        <v>0.03951690765097737</v>
       </c>
       <c r="M6">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N6">
-        <v>9.876010009087622</v>
+        <v>0.0997235830873251</v>
       </c>
       <c r="O6">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P6">
-        <v>1.155046759593731</v>
+        <v>1.155176008746905</v>
       </c>
       <c r="Q6">
-        <v>0.8657658157075248</v>
+        <v>0.8656689477863768</v>
       </c>
       <c r="R6">
-        <v>-51.80748557155312</v>
+        <v>-0.5231274099496659</v>
       </c>
       <c r="S6">
-        <v>-0.5895750855379447</v>
+        <v>-0.005953504285571398</v>
       </c>
       <c r="T6">
-        <v>-5.443200688427169</v>
+        <v>-0.05496282502190297</v>
       </c>
       <c r="U6">
-        <v>-68.87323459377512</v>
+        <v>-0.6954854596406221</v>
       </c>
       <c r="V6">
-        <v>-109.5890647517517</v>
+        <v>-1.106603373307735</v>
       </c>
       <c r="W6">
-        <v>15.02826383989304</v>
+        <v>0.1516788981389254</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -889,70 +889,70 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>-3.186966376379132</v>
+        <v>-0.03217695094645023</v>
       </c>
       <c r="C7">
-        <v>95.80620414204895</v>
+        <v>0.9672997519373894</v>
       </c>
       <c r="D7">
-        <v>-0.007953598149470054</v>
+        <v>-8.030289609450847E-05</v>
       </c>
       <c r="E7">
-        <v>0.2304558791365707</v>
+        <v>0.002326779533177614</v>
       </c>
       <c r="F7">
-        <v>-0.002452285149047384</v>
+        <v>-2.475930159562267E-05</v>
       </c>
       <c r="G7">
-        <v>0.2111398416345764</v>
+        <v>0.002131756693415809</v>
       </c>
       <c r="H7">
-        <v>-0.0001496877084719017</v>
+        <v>-1.511308255430777E-06</v>
       </c>
       <c r="I7">
-        <v>0.0009214918518409831</v>
+        <v>9.303769729740452E-06</v>
       </c>
       <c r="J7">
-        <v>-1.752090857829899</v>
+        <v>-0.0176898455247283</v>
       </c>
       <c r="K7">
-        <v>5.886215663515031</v>
+        <v>0.05942971026524901</v>
       </c>
       <c r="L7">
-        <v>-0.8923207884654403</v>
+        <v>-0.009009245317429304</v>
       </c>
       <c r="M7">
-        <v>54.16255767643452</v>
+        <v>0.5468479746486992</v>
       </c>
       <c r="N7">
-        <v>-0.3544232682324946</v>
+        <v>-0.003578406758606434</v>
       </c>
       <c r="O7">
-        <v>29.8868654971011</v>
+        <v>0.3017503712326288</v>
       </c>
       <c r="P7">
-        <v>-0.03326471813510025</v>
+        <v>-0.0332647153914839</v>
       </c>
       <c r="Q7">
-        <v>-30.06188105784129</v>
+        <v>-30.06188353729339</v>
       </c>
       <c r="R7">
-        <v>0.3099918606312713</v>
+        <v>0.003129808494122699</v>
       </c>
       <c r="S7">
-        <v>0.2356626931250503</v>
+        <v>0.002379349709372036</v>
       </c>
       <c r="T7">
-        <v>0.00241836893656</v>
+        <v>2.441685228404822E-05</v>
       </c>
       <c r="U7">
-        <v>33.43109817942604</v>
+        <v>0.3375344388186932</v>
       </c>
       <c r="V7">
-        <v>23.40712424181402</v>
+        <v>0.236328165512532</v>
       </c>
       <c r="W7">
-        <v>63.08576556108892</v>
+        <v>0.6369404278229922</v>
       </c>
     </row>
   </sheetData>
